--- a/guide41_email.xlsx
+++ b/guide41_email.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE82FD5A-BC42-4BFB-B0A1-B60B4D8BE42C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C89C8-89E4-480F-B8FC-5DC555E5728C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="p1" sheetId="5" r:id="rId1"/>
+    <sheet name="index" sheetId="8" r:id="rId1"/>
+    <sheet name="p1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>header1</t>
   </si>
@@ -86,6 +87,33 @@
       <t xml:space="preserve">ヒロダイ </t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>登録メールアドレス</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _登録メールアドレス</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;登録メールアドレス&lt;/h3&gt;&lt;br&gt;
+初期状態で、広大 moodle にはあなたの姓・名、広大メールアドレスが登録されています。
+これらは、必要に応じて変更することができます。
+特にメールアドレスは、広大 moodle からの通知を見落とさないために、普段よく使っているものに変更するとよいでしょう。&lt;br &gt;
+</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -158,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +208,13 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,11 +529,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -634,21 +732,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,21 +990,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -940,9 +1035,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_email.xlsx
+++ b/guide41_email.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C89C8-89E4-480F-B8FC-5DC555E5728C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFCDA3-7312-4D3C-95E8-28AB3E4541CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>header1</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>fresta</t>
@@ -63,23 +60,6 @@
   </si>
   <si>
     <t>mail3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 初期状態で、広大 moodle にはあなたの姓・名、広大メールアドレスが登録されています。
-これらは、必要に応じて変更することができます。
-特にメールアドレスは、広大 moodle からの通知を見落とさないために、普段よく使っているものに変更するとよいでしょう。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#email change"&gt;登録メールアドレスを変更する&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="email change"&gt;&lt;/a&gt;登録メールアドレスを変更する&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録メールアドレス</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>広大moodle マニュアル guide41-email</t>
@@ -114,6 +94,9 @@
 特にメールアドレスは、広大 moodle からの通知を見落とさないために、普段よく使っているものに変更するとよいでしょう。&lt;br &gt;
 </t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録メールアドレスを変更する</t>
   </si>
 </sst>
 </file>
@@ -186,14 +169,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -532,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -543,46 +523,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>17</v>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -593,100 +573,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="103.875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -714,15 +683,6 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -732,15 +692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -989,6 +940,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1008,14 +968,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1034,6 +986,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41_email.xlsx
+++ b/guide41_email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFCDA3-7312-4D3C-95E8-28AB3E4541CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B831165B-DBBC-41C5-92C1-A5A2DA344136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -610,46 +610,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -683,6 +684,9 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -692,6 +696,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -940,15 +953,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -968,6 +972,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -986,14 +998,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41_email.xlsx
+++ b/guide41_email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B831165B-DBBC-41C5-92C1-A5A2DA344136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B25C3E6-0FD6-45BE-A950-FB8DB2D13AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>header1</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>登録メールアドレスを変更する</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -587,73 +590,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
+      <c r="A1" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -687,6 +692,9 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -705,6 +713,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -953,24 +979,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
@@ -980,6 +988,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -996,15 +1015,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_email.xlsx
+++ b/guide41_email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B25C3E6-0FD6-45BE-A950-FB8DB2D13AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC19C10-24F9-4BDA-B3D6-BC9B82334608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -100,6 +97,10 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -516,7 +517,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -530,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -538,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
@@ -546,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -556,12 +557,12 @@
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -579,7 +580,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -591,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -599,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -704,33 +705,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -979,26 +953,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1015,4 +997,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_email.xlsx
+++ b/guide41_email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC19C10-24F9-4BDA-B3D6-BC9B82334608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF513151-4296-4DCA-9643-0E05AF520161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -40,10 +40,6 @@
     <t>fresta</t>
   </si>
   <si>
-    <t>画面右上の▼（ユーザメニュー）をクリックし、［プロファイル］を選択し、［プロファイルを編集する］をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>変更したい情報（姓・名、メールアドレス）を入力し、［プロファイルを更新する］をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -100,6 +96,10 @@
   </si>
   <si>
     <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、［プロファイル］を選択し、［プロファイルを編集する］をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -557,12 +557,12 @@
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -580,7 +580,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -592,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -630,35 +630,35 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -705,6 +705,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -953,24 +971,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -981,6 +981,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -999,17 +1010,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
